--- a/medicine/Mort/Charogne/Charogne.xlsx
+++ b/medicine/Mort/Charogne/Charogne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une charogne est le corps ou la carcasse d'un animal mort récemment ou non, dans un état plus ou moins avancé de décomposition. Le terme est plus ou moins synonyme de cadavre.
 </t>
@@ -511,7 +523,9 @@
           <t>Dans la nature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cadavre de l'animal devient souvent une source alimentaire pour un autre animal dit « charognard », comme la hyène, le vautour, le condor ou le gypaète barbu.
 D'autres animaux, opportunistes, se nourrissent de charognes lorsqu'ils en trouvent, tels les suidés. Les sangliers, par exemple, ne dédaignent pas venir fouiller la nuit les laisses de mer aux époques où ils peuvent y trouver des cadavres de poissons ou d'oiseaux. 
@@ -546,7 +560,9 @@
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les charognes sont des vecteurs importants de transmission des maladies infectieuses comme la grippe aviaire, ainsi les règles d'hygiène courantes recommandent de ne pas s'en approcher. Au Moyen Âge, l'envoi de charogne en décomposition au-dessus des murs d'une ville assiégée constituait une forme d'utilisation d'armes biologiques.
 On appelle équarrissage le traitement industriel des charognes, notamment celles provenant des élevages agricoles. C'est en voulant produire de la farine animale à partir de moutons décédés de la tremblante pour nourrir du bétail qu'est survenue la crise de l'encéphalopathie spongiforme bovine en Angleterre.
